--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Videos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Videos\Documents\GitHub\ucc-duino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Calcular capacitores Cristales</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21A106KPFNNNG/1276-6456-1-ND/5958084</t>
+  </si>
+  <si>
+    <t>Hay</t>
   </si>
 </sst>
 </file>
@@ -350,8 +353,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="[$$-2C0A]\ #,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-2C0A]\ #,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -370,12 +373,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,14 +400,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -680,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q35"/>
+  <dimension ref="A2:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>28</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>29</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>31</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>33</v>
       </c>
@@ -1152,7 +1162,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="B21">
         <v>35</v>
       </c>
@@ -1176,7 +1189,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="B22">
         <v>36</v>
       </c>
@@ -1200,7 +1216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>38</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>39</v>
       </c>
@@ -1248,7 +1264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>42</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>47</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>50</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>51</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>54</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>55</v>
       </c>
@@ -1392,7 +1408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>56</v>
       </c>
@@ -1416,7 +1432,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>57</v>
       </c>
